--- a/Modèle-audit-SEO(1).xlsx
+++ b/Modèle-audit-SEO(1).xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="615" windowWidth="27855" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="945" yWindow="615" windowWidth="27855" windowHeight="16440" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Choses effectués" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="165">
   <si>
     <t>Catégorie</t>
   </si>
@@ -446,13 +447,105 @@
   </si>
   <si>
     <t>Replacer ces images par un paragraphe</t>
+  </si>
+  <si>
+    <t>Ce qui a été réalisé</t>
+  </si>
+  <si>
+    <t>n°</t>
+  </si>
+  <si>
+    <t>Ou ?</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Ajout/Suppression</t>
+  </si>
+  <si>
+    <t>&lt;script async src="https://www.googletagmanager.com/gtag/js?id=UA-54516992-1"&gt;&lt;/script&gt;
+&lt;script&gt;
+  window.dataLayer = window.dataLayer || [];
+  function gtag(){dataLayer.push(arguments);}
+  gtag('js', new Date());
+  gtag('config', 'UA-54516992-1');
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>Lang="fr"</t>
+  </si>
+  <si>
+    <t>Mise en commentaire de la ligne keyword</t>
+  </si>
+  <si>
+    <t>Ligne 6</t>
+  </si>
+  <si>
+    <t>Ajout d'une description : Devenez attractif et visible sur internet grâce a notre agence La Panthère, agence de web design</t>
+  </si>
+  <si>
+    <t>Ligne 4</t>
+  </si>
+  <si>
+    <t>Ajout du robot  google pour le parcours des page et indexation :  &lt;meta name="robots" content="all"&gt;</t>
+  </si>
+  <si>
+    <t>Ligne 23</t>
+  </si>
+  <si>
+    <t>Ajout d'un titre dans la balise &lt;title&gt; :  La Panthère : Agence de Web Design</t>
+  </si>
+  <si>
+    <t>Ligne 27 à 34</t>
+  </si>
+  <si>
+    <t>Nav</t>
+  </si>
+  <si>
+    <t>Mise en commentaire des lignes 48 et 50 (keyword pour eviter BlackHat</t>
+  </si>
+  <si>
+    <t>Ligne 48 à 50</t>
+  </si>
+  <si>
+    <t>Ligne 57 à 62</t>
+  </si>
+  <si>
+    <t>Nav Ul Li</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Suppression de la 2eme balise li pour tout mettre dans la même + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Changement de display pour afficher Accueil et Contact l'un a coté de l'autre</t>
+    </r>
+  </si>
+  <si>
+    <t>div class="col-sm-12 text-center"</t>
+  </si>
+  <si>
+    <t>Supression de l'image pour la remplacer par un titre &lt;h2&gt; (qui sera indexable par le robot Google : L'agence La Panthère est une agence de web design qui aide les entreprises à devenir attractives et visibles sur Internet.</t>
+  </si>
+  <si>
+    <t>Ligne 91 et 92</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -495,6 +588,18 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -510,7 +615,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -525,11 +630,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -539,24 +700,98 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -607,6 +842,87 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>73066</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>943987</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3" descr="Lighthouse_desktop.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10969666" y="3657600"/>
+          <a:ext cx="5823921" cy="3467100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>109627</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>33053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>887359</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>923925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4" descr="Lighthouse_mobile.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11006227" y="33053"/>
+          <a:ext cx="5730732" cy="3424522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -814,7 +1130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z1024"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -879,50 +1195,50 @@
       <c r="A3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>120</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
-      <c r="B4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>121</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>124</v>
       </c>
     </row>
@@ -930,19 +1246,19 @@
       <c r="A7" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>125</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>127</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>129</v>
       </c>
     </row>
@@ -955,19 +1271,19 @@
       <c r="A9" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>134</v>
       </c>
     </row>
@@ -975,11 +1291,11 @@
       <c r="A10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>135</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>136</v>
       </c>
     </row>
@@ -995,10 +1311,10 @@
       <c r="A13" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>138</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -2179,7 +2495,7 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2201,10 +2517,10 @@
       <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="5" t="s">
         <v>36</v>
       </c>
@@ -2219,10 +2535,10 @@
       <c r="B4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="13"/>
       <c r="F4" s="5" t="s">
         <v>35</v>
       </c>
@@ -2234,10 +2550,10 @@
       <c r="B5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="13"/>
       <c r="F5" s="5" t="s">
         <v>34</v>
       </c>
@@ -2249,10 +2565,10 @@
       <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
@@ -2295,7 +2611,7 @@
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" t="s">
+      <c r="B21" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2315,7 +2631,7 @@
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" t="s">
+      <c r="B25" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2406,134 +2722,134 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:11" ht="75">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8" t="s">
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="8"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="6"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="8"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="6"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="8"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4" ht="45">
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="8" t="s">
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2553,7 +2869,346 @@
     <mergeCell ref="B44:B48"/>
     <mergeCell ref="C44:C48"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B21" r:id="rId1"/>
+    <hyperlink ref="B25" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="29"/>
+    <col min="4" max="4" width="45.88671875" style="29" customWidth="1"/>
+    <col min="5" max="6" width="11.5546875" style="29"/>
+    <col min="7" max="7" width="13.21875" style="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="15"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="5" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A5" s="17">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" customHeight="1">
+      <c r="A6" s="17">
+        <v>2</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A7" s="17">
+        <v>3</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="44.25" customHeight="1">
+      <c r="A8" s="17">
+        <v>4</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="17">
+        <v>5</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="138.75" customHeight="1">
+      <c r="A10" s="17">
+        <v>6</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="17">
+        <v>7</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30.75" customHeight="1">
+      <c r="A12" s="17">
+        <v>8</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="48" customHeight="1">
+      <c r="A13" s="17">
+        <v>9</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="37" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="17">
+        <v>10</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" ht="21" customHeight="1">
+      <c r="A15" s="17">
+        <v>11</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="17">
+        <v>12</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="17">
+        <v>14</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="17">
+        <v>15</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="17">
+        <v>16</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="17">
+        <v>17</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="17">
+        <v>18</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="17">
+        <v>19</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="17">
+        <v>20</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Modèle-audit-SEO(1).xlsx
+++ b/Modèle-audit-SEO(1).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="170">
   <si>
     <t>Catégorie</t>
   </si>
@@ -535,10 +535,26 @@
     <t>div class="col-sm-12 text-center"</t>
   </si>
   <si>
-    <t>Supression de l'image pour la remplacer par un titre &lt;h2&gt; (qui sera indexable par le robot Google : L'agence La Panthère est une agence de web design qui aide les entreprises à devenir attractives et visibles sur Internet.</t>
-  </si>
-  <si>
     <t>Ligne 91 et 92</t>
+  </si>
+  <si>
+    <t>Ligne 681 (CSS)</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Augmentation de font-size de 11px à 15px</t>
+  </si>
+  <si>
+    <t>Supression de l'image pour la remplacer par un titre &lt;h2 class="description"&gt; (qui sera indexable par le robot Google : L'agence La Panthère est une agence de web design qui aide les entreprises à devenir attractives et visibles sur Internet. &lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supression de l'image pour la remplacer par un titre &lt;h2 class="avis"&gt;"L'agence La Panthère est une excellente agence web ! Les web designers on réussi ç capturer l'essence de ntore entreprise et à l'intégrer à notre site. Cela nous a aidé à doubler nos ventes en ligne à Lyon."&lt;/br&gt; 
+     Maxime Guibard,PDG de À vos fourchettes&lt;/h2&gt; </t>
+  </si>
+  <si>
+    <t>Ligne 132,133 et 134</t>
   </si>
 </sst>
 </file>
@@ -690,7 +706,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -705,22 +721,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -731,24 +732,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -765,11 +748,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -777,17 +775,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -854,15 +876,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>73066</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>54016</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1000125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>943987</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>924937</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -879,7 +901,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10969666" y="3657600"/>
+          <a:off x="13789066" y="3533775"/>
           <a:ext cx="5823921" cy="3467100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1128,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z1024"/>
+  <dimension ref="A1:Z1018"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -1201,7 +1223,7 @@
       <c r="D3" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="22" t="s">
         <v>122</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -1212,14 +1234,14 @@
       <c r="A4" s="3"/>
       <c r="B4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="10"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
@@ -1249,7 +1271,7 @@
       <c r="B7" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="23" t="s">
         <v>126</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1264,7 +1286,7 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="C8" s="11"/>
+      <c r="C8" s="23"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
@@ -1495,28 +1517,16 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A55" s="5"/>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A56" s="5"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A57" s="5"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A58" s="5"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A59" s="5"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A60" s="5"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A61" s="5" t="s">
+      <c r="A55" s="5" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1"/>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="62" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="63" spans="1:5" ht="15.75" customHeight="1"/>
     <row r="64" spans="1:5" ht="15.75" customHeight="1"/>
@@ -2474,12 +2484,6 @@
     <row r="1016" ht="15.75" customHeight="1"/>
     <row r="1017" ht="15.75" customHeight="1"/>
     <row r="1018" ht="15.75" customHeight="1"/>
-    <row r="1019" ht="15.75" customHeight="1"/>
-    <row r="1020" ht="15.75" customHeight="1"/>
-    <row r="1021" ht="15.75" customHeight="1"/>
-    <row r="1022" ht="15.75" customHeight="1"/>
-    <row r="1023" ht="15.75" customHeight="1"/>
-    <row r="1024" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E3:E5"/>
@@ -2517,10 +2521,10 @@
       <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="5" t="s">
         <v>36</v>
       </c>
@@ -2535,10 +2539,10 @@
       <c r="B4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="25"/>
       <c r="F4" s="5" t="s">
         <v>35</v>
       </c>
@@ -2550,10 +2554,10 @@
       <c r="B5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="25"/>
       <c r="F5" s="5" t="s">
         <v>34</v>
       </c>
@@ -2565,10 +2569,10 @@
       <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
@@ -2722,10 +2726,10 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="24" t="s">
         <v>85</v>
       </c>
       <c r="D44" s="6" t="s">
@@ -2733,23 +2737,23 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
       <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
       <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
       <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:11" ht="75">
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
       <c r="D48" s="6" t="s">
         <v>87</v>
       </c>
@@ -2810,10 +2814,10 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D54" s="6" t="s">
@@ -2821,23 +2825,23 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
       <c r="D55" s="6"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
       <c r="D56" s="6"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
       <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4" ht="45">
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
       <c r="D58" s="6" t="s">
         <v>106</v>
       </c>
@@ -2882,317 +2886,330 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" style="29"/>
-    <col min="4" max="4" width="45.88671875" style="29" customWidth="1"/>
-    <col min="5" max="6" width="11.5546875" style="29"/>
-    <col min="7" max="7" width="13.21875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="18"/>
+    <col min="4" max="4" width="45.88671875" style="18" customWidth="1"/>
+    <col min="5" max="6" width="11.5546875" style="18"/>
+    <col min="7" max="7" width="14.33203125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="35"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="25"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A5" s="17">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="28" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="17" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1">
-      <c r="A6" s="17">
+      <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="28" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="17" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A7" s="17">
+      <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="28" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A8" s="17">
+      <c r="A8" s="12">
         <v>4</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="28" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="17" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="17">
+      <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="28" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="138.75" customHeight="1">
-      <c r="A10" s="17">
+      <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="28" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="17" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="17">
+      <c r="A11" s="12">
         <v>7</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="28" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="17" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A12" s="17">
+      <c r="A12" s="12">
         <v>8</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="28" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="17" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="48" customHeight="1">
-      <c r="A13" s="17">
+      <c r="A13" s="12">
         <v>9</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="37" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="75" customHeight="1">
+      <c r="A14" s="12">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="21" customHeight="1">
+      <c r="A15" s="12">
+        <v>11</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="12">
+        <v>12</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="12">
+        <v>13</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="12">
+        <v>14</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="12">
+        <v>15</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="12">
+        <v>16</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="17">
-        <v>10</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" ht="21" customHeight="1">
-      <c r="A15" s="17">
-        <v>11</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="17">
-        <v>12</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="25"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="17">
-        <v>13</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="17">
-        <v>14</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="17">
-        <v>15</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="17">
-        <v>16</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="25"/>
-    </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="17">
+      <c r="A21" s="12">
         <v>17</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="25"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="17">
+      <c r="A22" s="12">
         <v>18</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="25"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="17">
+      <c r="A23" s="12">
         <v>19</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="25"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="17">
+      <c r="A24" s="12">
         <v>20</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="25"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C20:F20"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C15:F15"/>
@@ -3204,8 +3221,6 @@
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Modèle-audit-SEO(1).xlsx
+++ b/Modèle-audit-SEO(1).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="185">
   <si>
     <t>Catégorie</t>
   </si>
@@ -555,6 +555,51 @@
   </si>
   <si>
     <t>Ligne 132,133 et 134</t>
+  </si>
+  <si>
+    <t>Ligne 151</t>
+  </si>
+  <si>
+    <t>&lt;p class="text-center white"&gt;</t>
+  </si>
+  <si>
+    <t>Remplacement de page2.html par contact.html</t>
+  </si>
+  <si>
+    <t>&lt;div class="col-xs-12 col-md-8 col-md-offset-2 text-center"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="col-sm-12 text-center"&gt;</t>
+  </si>
+  <si>
+    <t>Supression de l'image pour la remplacer par un titre &lt;h2&gt;Nous travaillons avec beacoups de clients,&lt;br&gt; voici nos réalisation.&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>Ligne 164,165</t>
+  </si>
+  <si>
+    <t>Ligne 220</t>
+  </si>
+  <si>
+    <t>&lt;div class="row"&gt;</t>
+  </si>
+  <si>
+    <t>Ligne 258 à 300</t>
+  </si>
+  <si>
+    <t>Supression de la liste de liens (peut etre considéré comme black Hat)</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>.navbar-brand img</t>
+  </si>
+  <si>
+    <t>Augmentation de la taille du logo</t>
+  </si>
+  <si>
+    <t>Ligne 305</t>
   </si>
 </sst>
 </file>
@@ -706,7 +751,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -757,6 +802,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -769,6 +817,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -784,32 +850,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -883,8 +940,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>924937</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1223,7 +1280,7 @@
       <c r="D3" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="23" t="s">
         <v>122</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -1234,14 +1291,14 @@
       <c r="A4" s="3"/>
       <c r="B4" s="7"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="22"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="22"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
@@ -1271,7 +1328,7 @@
       <c r="B7" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="24" t="s">
         <v>126</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1286,7 +1343,7 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="C8" s="23"/>
+      <c r="C8" s="24"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
@@ -2521,10 +2578,10 @@
       <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="5" t="s">
         <v>36</v>
       </c>
@@ -2539,10 +2596,10 @@
       <c r="B4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="26"/>
       <c r="F4" s="5" t="s">
         <v>35</v>
       </c>
@@ -2554,10 +2611,10 @@
       <c r="B5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="26"/>
       <c r="F5" s="5" t="s">
         <v>34</v>
       </c>
@@ -2569,10 +2626,10 @@
       <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
@@ -2726,10 +2783,10 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="25" t="s">
         <v>85</v>
       </c>
       <c r="D44" s="6" t="s">
@@ -2737,23 +2794,23 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:11" ht="75">
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="6" t="s">
         <v>87</v>
       </c>
@@ -2814,10 +2871,10 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="25" t="s">
         <v>104</v>
       </c>
       <c r="D54" s="6" t="s">
@@ -2825,23 +2882,23 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="6"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="6"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4" ht="45">
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="6" t="s">
         <v>106</v>
       </c>
@@ -2884,10 +2941,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2901,10 +2958,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="27"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="15" t="s">
@@ -2913,11 +2970,11 @@
       <c r="B3" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="19"/>
       <c r="G3" s="14"/>
     </row>
@@ -2928,12 +2985,12 @@
       <c r="B5" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="17" t="s">
         <v>134</v>
       </c>
@@ -2945,12 +3002,12 @@
       <c r="B6" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="17" t="s">
         <v>151</v>
       </c>
@@ -2962,12 +3019,12 @@
       <c r="B7" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="17" t="s">
         <v>129</v>
       </c>
@@ -2979,12 +3036,12 @@
       <c r="B8" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="17" t="s">
         <v>149</v>
       </c>
@@ -2996,12 +3053,12 @@
       <c r="B9" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="17" t="s">
         <v>153</v>
       </c>
@@ -3013,12 +3070,12 @@
       <c r="B10" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="17" t="s">
         <v>155</v>
       </c>
@@ -3030,12 +3087,12 @@
       <c r="B11" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="17" t="s">
         <v>158</v>
       </c>
@@ -3047,12 +3104,12 @@
       <c r="B12" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="17" t="s">
         <v>159</v>
       </c>
@@ -3064,12 +3121,12 @@
       <c r="B13" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="21" t="s">
         <v>163</v>
       </c>
@@ -3078,49 +3135,69 @@
       <c r="A14" s="12">
         <v>10</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="34" t="s">
+      <c r="B14" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="39" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="21" customHeight="1">
+    <row r="15" spans="1:7" ht="42.75" customHeight="1">
       <c r="A15" s="12">
         <v>11</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="B15" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45">
       <c r="A16" s="12">
         <v>12</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="B16" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45">
       <c r="A17" s="12">
         <v>13</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="14"/>
+      <c r="B17" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="21" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="12">
@@ -3151,12 +3228,12 @@
       <c r="B20" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
       <c r="G20" s="17" t="s">
         <v>164</v>
       </c>
@@ -3194,19 +3271,290 @@
       <c r="F23" s="19"/>
       <c r="G23" s="14"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="30">
       <c r="A24" s="12">
         <v>20</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="14"/>
+      <c r="B24" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="42"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="30">
+      <c r="A32" s="12">
+        <v>1</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="12">
+        <v>2</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="12">
+        <v>3</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="12">
+        <v>4</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="12">
+        <v>5</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="12">
+        <v>6</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="12">
+        <v>7</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="12">
+        <v>8</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="12">
+        <v>9</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="21"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="12">
+        <v>10</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="12">
+        <v>11</v>
+      </c>
+      <c r="B42" s="40"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="12">
+        <v>12</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="21"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="12">
+        <v>13</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="12">
+        <v>14</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="12">
+        <v>15</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="12">
+        <v>16</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="17"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="12">
+        <v>17</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="12">
+        <v>18</v>
+      </c>
+      <c r="B49" s="12"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="14"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="12">
+        <v>19</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="12">
+        <v>20</v>
+      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="34">
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C20:F20"/>
@@ -3221,6 +3569,8 @@
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
